--- a/Balancing_Algorithm/Orderbook.xlsx
+++ b/Balancing_Algorithm/Orderbook.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4 - GitRepos\DEM\Balancing_Simulator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="9780" activeTab="3" xr2:uid="{F04C47CB-B80D-456C-8822-55F250500C8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="Scenarios" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="64">
   <si>
     <t>Bid Size</t>
   </si>
@@ -198,13 +193,34 @@
   </si>
   <si>
     <t>post-trade orderbook</t>
+  </si>
+  <si>
+    <t>Matching:</t>
+  </si>
+  <si>
+    <t>Unmerging:</t>
+  </si>
+  <si>
+    <t>Go over eveyr entry in the returned trade list:</t>
+  </si>
+  <si>
+    <t>Delete after every itteration (if it was not found it was an invalide order id, else it was handeled)</t>
+  </si>
+  <si>
+    <t>for each entry in CRL check if entry.orderid and uuid match</t>
+  </si>
+  <si>
+    <t>we already know trade volume from returned trade list</t>
+  </si>
+  <si>
+    <t>Sum volume of all orders from that match</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +238,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,7 +400,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -413,6 +437,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -452,7 +477,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E03F21D-337A-4398-A584-697CF6A07ED2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E03F21D-337A-4398-A584-697CF6A07ED2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -506,7 +531,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621ADDD4-8882-41D8-8303-9076D6E02095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{621ADDD4-8882-41D8-8303-9076D6E02095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -588,7 +613,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -640,7 +665,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -834,38 +859,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32286213-AABB-4559-A9FB-64251DEC8880}">
-  <dimension ref="B2:T46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:U46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" customWidth="1"/>
+    <col min="20" max="20" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21">
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -904,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="4"/>
@@ -923,7 +952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21">
       <c r="B5" s="8"/>
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
@@ -939,7 +968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21">
       <c r="B6" s="8"/>
       <c r="D6" s="3"/>
       <c r="G6" s="3"/>
@@ -955,7 +984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21">
       <c r="B7" s="8"/>
       <c r="D7" s="3"/>
       <c r="E7" s="12">
@@ -978,7 +1007,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21">
       <c r="B8" s="8"/>
       <c r="D8" s="3"/>
       <c r="E8" s="12">
@@ -1000,8 +1029,11 @@
       <c r="Q8" s="18">
         <v>968</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T8" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" s="8"/>
       <c r="D9" s="3"/>
       <c r="E9" s="12">
@@ -1027,8 +1059,11 @@
       <c r="Q9" s="18">
         <v>412</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" s="8"/>
       <c r="C10" s="16">
         <v>95</v>
@@ -1046,8 +1081,11 @@
       <c r="O10" s="3"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="8"/>
       <c r="D11" s="3"/>
       <c r="E11" s="12">
@@ -1070,8 +1108,11 @@
       <c r="Q11" s="18">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="8"/>
       <c r="D12" s="3"/>
       <c r="E12" s="12">
@@ -1098,8 +1139,11 @@
       <c r="Q12" s="18">
         <v>554</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" s="8"/>
       <c r="C13" s="16">
         <v>336</v>
@@ -1121,8 +1165,11 @@
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" s="8"/>
       <c r="C14" s="16">
         <v>214</v>
@@ -1145,7 +1192,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21">
       <c r="B15" s="8"/>
       <c r="C15" s="16">
         <v>120</v>
@@ -1173,7 +1220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21">
       <c r="B16" s="8"/>
       <c r="D16" s="3"/>
       <c r="E16" s="12">
@@ -1196,7 +1243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17">
       <c r="B17" s="8"/>
       <c r="D17" s="3"/>
       <c r="E17" s="12">
@@ -1219,7 +1266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17">
       <c r="B18" s="8"/>
       <c r="D18" s="3"/>
       <c r="E18" s="12">
@@ -1241,7 +1288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17">
       <c r="B19" s="8"/>
       <c r="C19" s="16">
         <v>25</v>
@@ -1267,7 +1314,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17">
       <c r="B20" s="8"/>
       <c r="C20" s="16">
         <v>47</v>
@@ -1293,7 +1340,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17">
       <c r="B21" s="8"/>
       <c r="D21" s="3"/>
       <c r="E21" s="15">
@@ -1320,7 +1367,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17">
       <c r="B22" s="8"/>
       <c r="C22" s="16">
         <v>962</v>
@@ -1348,7 +1395,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17">
       <c r="B23" s="8"/>
       <c r="C23" s="16">
         <v>15</v>
@@ -1374,7 +1421,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17">
       <c r="B24" s="8"/>
       <c r="C24" s="16">
         <v>615</v>
@@ -1406,7 +1453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17">
       <c r="B25" s="8"/>
       <c r="D25" s="3"/>
       <c r="E25" s="15">
@@ -1429,7 +1476,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17">
       <c r="B26" s="8"/>
       <c r="C26" s="16">
         <v>32</v>
@@ -1451,7 +1498,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17">
       <c r="B27" s="8"/>
       <c r="D27" s="3"/>
       <c r="E27" s="15">
@@ -1474,7 +1521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17">
       <c r="B28" s="8"/>
       <c r="C28" s="16">
         <v>100</v>
@@ -1496,7 +1543,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17">
       <c r="B29" s="8"/>
       <c r="C29" s="16">
         <v>84</v>
@@ -1518,7 +1565,7 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17">
       <c r="B30" s="8"/>
       <c r="C30" s="16">
         <v>51</v>
@@ -1541,7 +1588,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17">
       <c r="B31" s="10"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
@@ -1557,11 +1604,11 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:14">
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:14">
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
     </row>
@@ -1570,66 +1617,67 @@
     <sortCondition descending="1" ref="E30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4C7EA7-1C00-4A3A-A7D0-AC88297F9677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:17">
       <c r="P5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:17">
       <c r="P7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:17">
       <c r="P8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:17">
       <c r="P9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:17">
       <c r="P11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:17">
       <c r="Q12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:17">
       <c r="Q13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:17">
       <c r="Q14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:17">
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:17">
       <c r="E16" s="8">
         <v>17</v>
       </c>
@@ -1681,7 +1729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:17">
       <c r="E17" s="8"/>
       <c r="F17" s="3"/>
       <c r="G17" s="9"/>
@@ -1704,7 +1752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:17">
       <c r="E18" s="8"/>
       <c r="F18" s="3"/>
       <c r="G18" s="9"/>
@@ -1727,7 +1775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:17">
       <c r="E19" s="8"/>
       <c r="F19" s="3"/>
       <c r="G19" s="9"/>
@@ -1736,7 +1784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:17">
       <c r="E20" s="8"/>
       <c r="F20" s="3"/>
       <c r="G20" s="9"/>
@@ -1749,67 +1797,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:17">
       <c r="E21" s="8"/>
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:17">
       <c r="E22" s="8"/>
       <c r="F22" s="3"/>
       <c r="G22" s="9"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:17">
       <c r="E23" s="8"/>
       <c r="F23" s="3"/>
       <c r="G23" s="9"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:17">
       <c r="E24" s="8"/>
       <c r="F24" s="3"/>
       <c r="G24" s="9"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:17">
       <c r="E25" s="8"/>
       <c r="F25" s="3"/>
       <c r="G25" s="9"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:17">
       <c r="E26" s="8"/>
       <c r="F26" s="3"/>
       <c r="G26" s="9"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:17">
       <c r="E27" s="8"/>
       <c r="F27" s="3"/>
       <c r="G27" s="9"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:17">
       <c r="E28" s="8"/>
       <c r="F28" s="3"/>
       <c r="G28" s="9"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:17">
       <c r="E29" s="8"/>
       <c r="F29" s="3"/>
       <c r="G29" s="9"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:17">
       <c r="E30" s="8"/>
       <c r="F30" s="3"/>
       <c r="G30" s="9"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:17">
       <c r="E31" s="10"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -1825,20 +1873,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B54A0-D412-46E7-B89B-97B9DDD36CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1849,7 +1897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16">
       <c r="C5" s="16">
         <f>48+20</f>
         <v>68</v>
@@ -1888,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16">
       <c r="D6" s="3"/>
       <c r="E6" s="12">
         <v>17.350000000000001</v>
@@ -1915,7 +1963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16">
       <c r="D7" s="3"/>
       <c r="E7" s="12">
         <v>17.350000000000001</v>
@@ -1948,14 +1996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C941DCD5-EDD3-46C0-9848-0D789B4AFE84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G29:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
@@ -1965,12 +2013,12 @@
     <col min="7" max="7" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -2006,7 +2054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -2042,7 +2090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -2078,7 +2126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -2114,7 +2162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -2150,7 +2198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -2186,7 +2234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -2222,7 +2270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -2255,18 +2303,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="E11">
         <f>SUM(E3:E10)</f>
         <v>-53</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -2302,7 +2350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -2338,7 +2386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -2374,7 +2422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -2410,7 +2458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>41</v>
       </c>
@@ -2446,7 +2494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="B18" t="s">
         <v>41</v>
       </c>
@@ -2482,7 +2530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -2518,7 +2566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -2554,7 +2602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -2590,7 +2638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -2626,7 +2674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -2662,7 +2710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>41</v>
       </c>
@@ -2698,7 +2746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -2731,17 +2779,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -2776,7 +2824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="B31" t="s">
         <v>33</v>
       </c>
